--- a/4.python/ch03/input/invoice-template.xlsx
+++ b/4.python/ch03/input/invoice-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\automation_python\source\src\ch3\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitrepo\CODEX\4.python\ch03\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A53BF88-C097-4E12-ADFD-DAE3B126DCB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D9B976-24AB-4DA5-B2C3-E9DB0F9A1899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="21480" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="4920" windowWidth="13080" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="청구서" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,34 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>주식회사　●●●●</t>
+    <t>소계</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>총계</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>발행일</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒヅケ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>주식회사　KMSLAB.SHOP</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">カブシキガイシャ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>서울특별시 강남구 삼성동 12, 가람빌딩 14F</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">トウキョウト </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">シンジュクク </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -120,35 +145,10 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-xxx-xxxx</t>
+      <t>-3452-456</t>
     </r>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">デンワ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>소계</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>총계</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>발행일</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒヅケ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>서울시 △△△ ■■빌딩 N층</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">トウキョウト </t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t xml:space="preserve">シンジュクク </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -553,18 +553,18 @@
     <xf numFmtId="38" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="58" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,15 +577,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,20 +609,41 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -638,18 +659,6 @@
     <xf numFmtId="178" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,18 +685,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1099,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H30"/>
+  <dimension ref="B2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17"/>
@@ -1120,32 +1117,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="25.15" customHeight="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:7" ht="21">
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="34" t="s">
-        <v>14</v>
+      <c r="F3" s="31" t="s">
+        <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="21">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1154,8 +1151,8 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7" ht="18" customHeight="1">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="6"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1163,65 +1160,65 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="7"/>
-      <c r="C6" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="C6" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="7"/>
-      <c r="C7" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="C7" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="2:7" ht="17.5">
       <c r="B8" s="7"/>
-      <c r="C8" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="7"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="2:7" ht="19.149999999999999" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="39">
-        <f>G24</f>
+      <c r="C11" s="44">
+        <f>G28</f>
         <v>0</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
@@ -1243,11 +1240,11 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="16.899999999999999" customHeight="1">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="16" t="s">
         <v>6</v>
       </c>
@@ -1255,139 +1252,173 @@
         <v>7</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="16.899999999999999" customHeight="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="30"/>
       <c r="G15" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="16.899999999999999" customHeight="1">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="17"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
+    <row r="17" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="17"/>
       <c r="F17" s="19"/>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
+    <row r="18" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="17"/>
       <c r="F18" s="19"/>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
+    <row r="19" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="17"/>
       <c r="F19" s="19"/>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
+    <row r="20" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="17"/>
       <c r="F20" s="19"/>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
+    <row r="21" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="17"/>
       <c r="F21" s="19"/>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
+    <row r="22" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B22" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="17"/>
       <c r="F22" s="19"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.899999999999999" customHeight="1" thickTop="1">
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26">
-        <f>SUM(G15:G23)</f>
+    <row r="23" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="2:7" ht="16.899999999999999" customHeight="1" thickBot="1">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" ht="16.899999999999999" customHeight="1" thickTop="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26">
+        <f>SUM(G15:G27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.899999999999999" customHeight="1">
-      <c r="A26" s="30"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.899999999999999" customHeight="1"/>
-    <row r="28" spans="1:8" ht="16.899999999999999" customHeight="1"/>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="29" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="28"/>
+    </row>
+    <row r="30" spans="2:7" ht="16.899999999999999" customHeight="1">
+      <c r="B30" s="29"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" ht="16.899999999999999" customHeight="1"/>
+    <row r="32" spans="2:7" ht="16.899999999999999" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="0.98402777777777783" header="0.51180555555555562" footer="0.51180555555555562"/>
